--- a/Tests/Unittesting.xlsx
+++ b/Tests/Unittesting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computing\Application Programming\Summative 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72817dd026ae5789/Documents/GitHub/mine_rescue_game/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9398139E-0AEB-4435-82FA-BC57818D243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9398139E-0AEB-4435-82FA-BC57818D243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{155FF2CC-05A8-4C09-9852-5753B4EA06A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>AGILE TEST PLAN TEMPLATE - BY AGILESEEDS.COM</t>
   </si>
@@ -102,34 +102,43 @@
     <t>def has_required_equipment</t>
   </si>
   <si>
-    <t>Checks the existing equipment against required equipment for puzzle, returns true if found, returns false is not found with correct output message</t>
-  </si>
-  <si>
     <t>puzzle.py</t>
   </si>
   <si>
     <t>inventory.py</t>
   </si>
   <si>
-    <t>ensure that the cipher generator for the first puzzle is shifting the input correctly</t>
-  </si>
-  <si>
     <t>Remove error within the string variables</t>
   </si>
   <si>
-    <t>returns inventory for 5 players: hammer, lasso, mask, notebook and None (default value when equipment used). Check if same values are returned</t>
-  </si>
-  <si>
     <t>Return False</t>
   </si>
   <si>
     <t>Inventory' object has no attribute 'has_required_equipment'</t>
   </si>
   <si>
-    <t>Recheck the working of the function</t>
-  </si>
-  <si>
     <t>Function name corrected</t>
+  </si>
+  <si>
+    <t>leaderboard.py</t>
+  </si>
+  <si>
+    <t>def count_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check puzzle time is being calculated correctly. </t>
+  </si>
+  <si>
+    <t>Ensure that the cipher generator for the first puzzle is shifting the input correctly.</t>
+  </si>
+  <si>
+    <t>Returns inventory for 5 players: hammer, lasso, mask, notebook and None (default value when equipment used). Check if same values are returned.</t>
+  </si>
+  <si>
+    <t>Checks the existing equipment against required equipment for puzzle, returns true if found, returns false is not. found with correct output message</t>
+  </si>
+  <si>
+    <t>Recheck the working of the function.</t>
   </si>
 </sst>
 </file>
@@ -315,6 +324,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,12 +353,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,62 +663,62 @@
     <row r="1" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22">
         <v>45262</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="16" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -745,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>13</v>
@@ -774,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -792,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>17</v>
@@ -803,13 +812,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>13</v>
@@ -830,13 +839,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>13</v>
@@ -845,10 +854,10 @@
         <v>14</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>16</v>
@@ -859,13 +868,13 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
@@ -874,16 +883,42 @@
         <v>14</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="14" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
